--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -830,35 +830,35 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -890,23 +890,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -918,23 +918,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,18 +942,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -970,18 +970,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -998,11 +998,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1026,18 +1026,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1058,14 +1058,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1086,14 +1086,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1110,11 +1110,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1138,11 +1138,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1166,11 +1166,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1226,26 +1226,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E18" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1254,51 +1254,51 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E19" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1306,27 +1306,27 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1334,18 +1334,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1124</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>1124</v>
+        <v>930</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1362,18 +1362,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1124</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>1124</v>
+        <v>930</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1394,23 +1394,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>147</v>
+        <v>930</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1422,25 +1422,361 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>945</v>
+      </c>
+      <c r="D25" t="n">
+        <v>930</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>509</v>
+      </c>
+      <c r="D26" t="n">
+        <v>322</v>
+      </c>
+      <c r="E26" t="n">
+        <v>137</v>
+      </c>
+      <c r="F26" t="n">
+        <v>38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>509</v>
+      </c>
+      <c r="D27" t="n">
+        <v>322</v>
+      </c>
+      <c r="E27" t="n">
+        <v>137</v>
+      </c>
+      <c r="F27" t="n">
+        <v>38</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>509</v>
+      </c>
+      <c r="D28" t="n">
+        <v>322</v>
+      </c>
+      <c r="E28" t="n">
+        <v>137</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>288</v>
+      </c>
+      <c r="D29" t="n">
+        <v>281</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>288</v>
+      </c>
+      <c r="D30" t="n">
+        <v>281</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>281</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C35" t="n">
         <v>197</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D35" t="n">
+        <v>131</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>66</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>197</v>
+      </c>
+      <c r="D36" t="n">
+        <v>147</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>197</v>
+      </c>
+      <c r="D37" t="n">
         <v>19</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>178</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>
